--- a/Assets/Excels/Skill.xlsx
+++ b/Assets/Excels/Skill.xlsx
@@ -463,7 +463,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -554,7 +554,9 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>0.4</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>19</v>

--- a/Assets/Excels/Skill.xlsx
+++ b/Assets/Excels/Skill.xlsx
@@ -13,8 +13,77 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+类型，参数1，参数2，参数3
+类型1  不选择目标，无参数
+类型2 选择目标
+参数1 半径
+参数2 类型 1自己，2 player 4 monster，按位与
+6：player + monster
+参数3 阵营类型  1 友方 2 敌方 4 中立 支持按位与
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+type param1 param2…
+type 1 按HP排序，  参数1  是否反序（1反序， 0 正序）
+type 2 按距离      参数1  是否反序（1反序， 0 正序）
+type 3 按类型      参数为类型列表，越前越高(1,2,4, 自己,Player,Monster)
+type 4 按阵营类型      参数为阵营类型列表，越前越高（1,2,4 友,敌,中立）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>//ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +162,38 @@
   </si>
   <si>
     <t>(1,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectTargetParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,6,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sortParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;List&lt;string&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1),(2,0),(3,1,2,4),(4,1,2,4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +215,19 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -459,11 +573,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -474,9 +588,11 @@
     <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
     <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="31.125" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,9 +612,14 @@
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -520,9 +641,14 @@
       <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -544,8 +670,14 @@
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -561,9 +693,14 @@
       <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -573,7 +710,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -583,7 +720,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -593,7 +730,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -603,7 +740,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -613,7 +750,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -623,7 +760,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -633,7 +770,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -643,7 +780,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -653,7 +790,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -663,7 +800,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -673,7 +810,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -687,5 +824,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/Excels/Skill.xlsx
+++ b/Assets/Excels/Skill.xlsx
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,15 +42,52 @@
 类型，参数1，参数2，参数3
 类型1  不选择目标，无参数
 类型2 选择目标
-参数1 半径
-参数2 类型 1自己，2 player 4 monster，按位与
+参数</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> 类型 1自己，2 player 4 monster，按位与
 6：player + monster
-参数3 阵营类型  1 友方 2 敌方 4 中立 支持按位与
+参数</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> 阵营类型  1 友方 2 敌方 4 中立 支持按位与
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>//ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,4,6,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;string&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +223,26 @@
   </si>
   <si>
     <t>(1,1),(2,0),(3,1,2,4),(4,1,2,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,6,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +276,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -574,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -588,11 +644,12 @@
     <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
     <col min="7" max="7" width="24.75" customWidth="1"/>
-    <col min="8" max="8" width="31.125" customWidth="1"/>
-    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.125" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,13 +670,16 @@
         <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -642,13 +702,16 @@
         <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -671,13 +734,16 @@
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -689,18 +755,23 @@
       <c r="E4" s="1">
         <v>0.4</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -708,9 +779,9 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -718,9 +789,9 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -728,9 +799,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -738,9 +809,9 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -748,9 +819,9 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -758,9 +829,9 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -768,9 +839,9 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -778,9 +849,9 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -788,9 +859,9 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -798,9 +869,9 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -808,9 +879,9 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -818,7 +889,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Excels/Skill.xlsx
+++ b/Assets/Excels/Skill.xlsx
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>//ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面向目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>subSkillList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +239,22 @@
   </si>
   <si>
     <t>(1,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否面向目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canUseIfNoTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有目标是否可以使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,13 +655,14 @@
     <col min="3" max="3" width="19.75" customWidth="1"/>
     <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="7" max="7" width="24.75" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.125" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="24.75" customWidth="1"/>
+    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.125" customWidth="1"/>
+    <col min="11" max="11" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,22 +677,25 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -699,19 +715,22 @@
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -731,19 +750,22 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -758,138 +780,131 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1">
         <v>4</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Excels/Skill.xlsx
+++ b/Assets/Excels/Skill.xlsx
@@ -645,7 +645,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -655,7 +655,7 @@
     <col min="3" max="3" width="19.75" customWidth="1"/>
     <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.75" customWidth="1"/>
     <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="31.125" customWidth="1"/>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>29</v>

--- a/Assets/Excels/Skill.xlsx
+++ b/Assets/Excels/Skill.xlsx
@@ -218,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1,1),(2,0),(3,1,2,4),(4,1,2,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1,0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否面向目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,6 +247,14 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1,1},{2,0},{3,1,2,4},{4,1,2,4}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +645,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -677,16 +677,16 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>18</v>
@@ -715,13 +715,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>19</v>
@@ -750,13 +750,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
@@ -784,16 +784,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1">
         <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">

--- a/Assets/Excels/Skill.xlsx
+++ b/Assets/Excels/Skill.xlsx
@@ -645,7 +645,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -775,7 +775,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
